--- a/files/yunio/Create_Multiple_Cost_Centers.xlsx
+++ b/files/yunio/Create_Multiple_Cost_Centers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25408"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tauchmann\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Source\kb.theobald-software.github.io\files\yunio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{934523B9-5A41-4F54-8242-D260F12F5218}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5426123F-AC9A-4C83-B919-A09F6FDB5536}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1351DF7B-CA95-416E-87B1-AECEE3CCD852}"/>
+    <workbookView xWindow="1515" yWindow="1515" windowWidth="20550" windowHeight="11835" xr2:uid="{1351DF7B-CA95-416E-87B1-AECEE3CCD852}"/>
   </bookViews>
   <sheets>
     <sheet name="CostCenterCreate" sheetId="1" r:id="rId1"/>
@@ -73,9 +73,6 @@
     <t>NAME</t>
   </si>
   <si>
-    <t>CS-1025</t>
-  </si>
-  <si>
     <t>YUNIODEMO</t>
   </si>
   <si>
@@ -97,23 +94,26 @@
     <t>Costcenter yunIO 22</t>
   </si>
   <si>
-    <t>CS-1026</t>
-  </si>
-  <si>
     <t>Costcenter yunIO 23</t>
   </si>
   <si>
-    <t>CS-1027</t>
-  </si>
-  <si>
     <t>Costcenter yunIO 24</t>
+  </si>
+  <si>
+    <t>CS-1022</t>
+  </si>
+  <si>
+    <t>CS-1023</t>
+  </si>
+  <si>
+    <t>CS-1024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -530,10 +530,10 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.42578125" customWidth="1"/>
     <col min="2" max="2" width="14.7109375" customWidth="1"/>
@@ -548,7 +548,7 @@
     <col min="11" max="11" width="20.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -583,9 +583,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B2" s="1">
         <v>20220101</v>
@@ -594,33 +594,33 @@
         <v>99991231</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="G2" s="1">
         <v>1000</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J2" s="1">
         <v>1000</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B3" s="1">
         <v>20220101</v>
@@ -629,33 +629,33 @@
         <v>99991231</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="G3" s="1">
         <v>1000</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J3" s="1">
         <v>1000</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B4" s="1">
         <v>20220101</v>
@@ -664,33 +664,33 @@
         <v>99991231</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="G4" s="1">
         <v>1000</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J4" s="1">
         <v>1000</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B5" s="1">
         <v>20220101</v>
@@ -699,28 +699,28 @@
         <v>99991231</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="G5" s="1">
         <v>1000</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J5" s="1">
         <v>1000</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -733,18 +733,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -880,13 +880,36 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6776B47-4D22-43BE-90DC-7D09D5232C38}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6891437A-0F13-4A80-BB63-7CD1BF31131A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6891437A-0F13-4A80-BB63-7CD1BF31131A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6776B47-4D22-43BE-90DC-7D09D5232C38}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{55E93737-3EF2-4A52-936F-973DFEADC8BF}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{55E93737-3EF2-4A52-936F-973DFEADC8BF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="2a27702a-0c64-4040-948d-871602cdecf5"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>